--- a/Assignment_02_Big_Oh_Exploration/Assignment_02.xlsx
+++ b/Assignment_02_Big_Oh_Exploration/Assignment_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reid Roberts\Desktop\CPSC 6109 Algorithms Analysis and Design\CPSC-6109-Algorithms-Analysis-and-Design\Assignment_02_Big_Oh_Exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F312BCB-6EB5-4F87-8796-173874B74B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BE8179-3775-43CB-B61F-896D32C3665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{797E9D8A-5580-4ECB-B6E6-8EA4A897F634}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <t>n = 300,000</t>
   </si>
@@ -81,18 +81,6 @@
   </si>
   <si>
     <t>Merge Sort</t>
-  </si>
-  <si>
-    <t>Expected Runtime Complexity</t>
-  </si>
-  <si>
-    <t>Worst-Case Runtime Complexity</t>
-  </si>
-  <si>
-    <t>Best-Case Runtime Complexity</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
   </si>
 </sst>
 </file>
@@ -363,14 +351,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,7 +400,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,15 +424,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,6 +865,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45632960899650388"/>
+              <c:y val="0.88793963254593178"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1265,25 +1256,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6316.25</c:v>
+                  <c:v>6320.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11477.75</c:v>
+                  <c:v>11542.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16897.5</c:v>
+                  <c:v>16971.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24552.125</c:v>
+                  <c:v>24538.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38919</c:v>
+                  <c:v>38858.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56245</c:v>
+                  <c:v>56195.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69903.25</c:v>
+                  <c:v>69863.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,6 +1597,800 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime vs. Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6320.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11542.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16971.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24538.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38858.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56195.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69863.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD1E-49F9-8969-A944B6513157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heapsort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD1E-49F9-8969-A944B6513157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quicksort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD1E-49F9-8969-A944B6513157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$7:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CD1E-49F9-8969-A944B6513157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="731788600"/>
+        <c:axId val="731794360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="731788600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Input Size (n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731794360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="731794360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Runtime (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731788600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1686,6 +2471,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2203,6 +3028,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2756,180 +4097,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638957" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835F719A-4834-5940-E9F6-C0799DA8A7F2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="17754600" y="3995737"/>
-              <a:ext cx="638957" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑂</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>(</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑛</m:t>
-                    </m:r>
-                    <m:func>
-                      <m:funcPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:funcPr>
-                      <m:fName>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>log</m:t>
-                        </m:r>
-                      </m:fName>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑛</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:func>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835F719A-4834-5940-E9F6-C0799DA8A7F2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="17754600" y="3995737"/>
-              <a:ext cx="638957" cy="173766"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑂(𝑛 log⁡〖𝑛)〗</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -2961,6 +4128,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBEF68A-8C80-E389-736D-4CEB5F562B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3289,7 +4492,7 @@
   <dimension ref="A4:AE46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,12 +4525,12 @@
     <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3339,211 +4542,208 @@
       <c r="L5" s="24"/>
       <c r="M5" s="25"/>
     </row>
-    <row r="6" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <v>300000</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="19">
         <f>AVERAGE(C$21:C$30)</f>
-        <v>6316.25</v>
-      </c>
-      <c r="K7" s="28">
+        <v>6320.5</v>
+      </c>
+      <c r="K7" s="19">
         <f>AVERAGE(D$21:D$30)</f>
         <v>35.6</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="19">
         <f>AVERAGE(E$21:E$30)</f>
         <v>23.3</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="19">
         <f>AVERAGE(F$21:F$30)</f>
         <v>41.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>400000</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="19">
         <f>AVERAGE(I$21:I$30)</f>
-        <v>11477.75</v>
-      </c>
-      <c r="K8" s="28">
+        <v>11542.8</v>
+      </c>
+      <c r="K8" s="19">
         <f t="shared" ref="K8:M8" si="0">AVERAGE(J$21:J$30)</f>
         <v>44.4</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="19">
         <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="19">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>500000</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="19">
         <f>AVERAGE(O$21:O$30)</f>
-        <v>16897.5</v>
-      </c>
-      <c r="K9" s="28">
+        <v>16971.7</v>
+      </c>
+      <c r="K9" s="19">
         <f t="shared" ref="K9:M9" si="1">AVERAGE(P$21:P$30)</f>
         <v>56.9</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="19">
         <f t="shared" si="1"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="19">
         <f t="shared" si="1"/>
         <v>55.6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>600000</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="19">
         <f>AVERAGE(U$21:U$30)</f>
-        <v>24552.125</v>
-      </c>
-      <c r="K10" s="28">
+        <v>24538.3</v>
+      </c>
+      <c r="K10" s="19">
         <f t="shared" ref="K10:M10" si="2">AVERAGE(V$21:V$30)</f>
         <v>70.2</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="19">
         <f t="shared" si="2"/>
         <v>41.5</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="19">
         <f t="shared" si="2"/>
         <v>70.3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I11" s="13">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I11" s="11">
         <v>750000</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="19">
         <f>AVERAGE(C$34:C$43)</f>
-        <v>38919</v>
-      </c>
-      <c r="K11" s="28">
+        <v>38858.9</v>
+      </c>
+      <c r="K11" s="19">
         <f t="shared" ref="K11:M11" si="3">AVERAGE(D$34:D$43)</f>
         <v>87.8</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="19">
         <f t="shared" si="3"/>
         <v>51.9</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="19">
         <f t="shared" si="3"/>
         <v>85.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I12" s="13">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I12" s="11">
         <v>900000</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="19">
         <f>AVERAGE(I$34:I$43)</f>
-        <v>56245</v>
-      </c>
-      <c r="K12" s="28">
+        <v>56195.9</v>
+      </c>
+      <c r="K12" s="19">
         <f t="shared" ref="K12:M12" si="4">AVERAGE(J$34:J$43)</f>
         <v>107.3</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="19">
         <f t="shared" si="4"/>
         <v>63.3</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="19">
         <f t="shared" si="4"/>
         <v>100.9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I13" s="13">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I13" s="11">
         <v>1000000</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="19">
         <f>AVERAGE(O$34:O$43)</f>
-        <v>69903.25</v>
-      </c>
-      <c r="K13" s="28">
+        <v>69863.7</v>
+      </c>
+      <c r="K13" s="19">
         <f t="shared" ref="K13:M13" si="5">AVERAGE(P$34:P$43)</f>
         <v>123.4</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="19">
         <f t="shared" si="5"/>
         <v>70.900000000000006</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="19">
         <f t="shared" si="5"/>
         <v>117.1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
     </row>
     <row r="17" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="AB17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE17" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
     </row>
     <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="AB18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
     </row>
     <row r="19" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
@@ -3553,7 +4753,7 @@
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="20" t="s">
         <v>1</v>
       </c>
@@ -3561,7 +4761,7 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="20" t="s">
         <v>2</v>
       </c>
@@ -3569,7 +4769,7 @@
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="22"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="3"/>
       <c r="T19" s="20" t="s">
         <v>3</v>
       </c>
@@ -3577,797 +4777,782 @@
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
       <c r="X19" s="22"/>
-      <c r="AB19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
     </row>
     <row r="20" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6" t="s">
+      <c r="M20" s="3"/>
+      <c r="N20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="6" t="s">
+      <c r="S20" s="3"/>
+      <c r="T20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W20" s="7" t="s">
+      <c r="W20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="X20" s="8" t="s">
+      <c r="X20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
     </row>
     <row r="21" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>6342</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>34</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>23</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>40</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="9">
+      <c r="G21" s="3"/>
+      <c r="H21" s="7">
         <v>1</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="8">
         <v>11483</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="8">
         <v>43</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="8">
         <v>25</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="9">
         <v>46</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="9">
+      <c r="M21" s="3"/>
+      <c r="N21" s="7">
         <v>1</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="8">
         <v>17257</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="8">
         <v>54</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="8">
         <v>34</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="9">
         <v>55</v>
       </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="9">
+      <c r="S21" s="3"/>
+      <c r="T21" s="7">
         <v>1</v>
       </c>
-      <c r="U21" s="10">
+      <c r="U21" s="8">
         <v>24905</v>
       </c>
-      <c r="V21" s="10">
+      <c r="V21" s="8">
         <v>69</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="8">
         <v>41</v>
       </c>
-      <c r="X21" s="11">
+      <c r="X21" s="9">
         <v>73</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <f>B21+1</f>
         <v>2</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>6289</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <v>36</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <v>25</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <v>56</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="12">
+      <c r="G22" s="3"/>
+      <c r="H22" s="10">
         <f>H21+1</f>
         <v>2</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="11">
         <v>11478</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="11">
         <v>44</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="11">
         <v>28</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="12">
         <v>46</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="12">
+      <c r="M22" s="3"/>
+      <c r="N22" s="10">
         <f>N21+1</f>
         <v>2</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="11">
         <v>16857</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="11">
         <v>56</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="11">
         <v>34</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="12">
         <v>54</v>
       </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="12">
+      <c r="S22" s="3"/>
+      <c r="T22" s="10">
         <f>T21+1</f>
         <v>2</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="11">
         <v>24672</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="11">
         <v>67</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="11">
         <v>42</v>
       </c>
-      <c r="X22" s="14">
+      <c r="X22" s="12">
         <v>68</v>
       </c>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
     </row>
     <row r="23" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <f t="shared" ref="B23:B30" si="6">B22+1</f>
         <v>3</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>6322</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>35</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <v>22</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>40</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="9">
+      <c r="G23" s="3"/>
+      <c r="H23" s="7">
         <f t="shared" ref="H23:H28" si="7">H22+1</f>
         <v>3</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <v>11486</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="8">
         <v>47</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="8">
         <v>27</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="9">
         <v>46</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="9">
+      <c r="M23" s="3"/>
+      <c r="N23" s="7">
         <f t="shared" ref="N23:N28" si="8">N22+1</f>
         <v>3</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="8">
         <v>16940</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="8">
         <v>56</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="8">
         <v>35</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="9">
         <v>56</v>
       </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="9">
+      <c r="S23" s="3"/>
+      <c r="T23" s="7">
         <f t="shared" ref="T23:T28" si="9">T22+1</f>
         <v>3</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="8">
         <v>24576</v>
       </c>
-      <c r="V23" s="10">
+      <c r="V23" s="8">
         <v>68</v>
       </c>
-      <c r="W23" s="10">
+      <c r="W23" s="8">
         <v>41</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X23" s="9">
         <v>69</v>
       </c>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
     </row>
     <row r="24" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>6356</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <v>35</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <v>22</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="12">
         <v>38</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="12">
+      <c r="G24" s="3"/>
+      <c r="H24" s="10">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="11">
         <v>11553</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="11">
         <v>45</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="11">
         <v>26</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="12">
         <v>48</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="12">
+      <c r="M24" s="3"/>
+      <c r="N24" s="10">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="11">
         <v>16793</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="11">
         <v>57</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="11">
         <v>33</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="12">
         <v>55</v>
       </c>
-      <c r="S24" s="5"/>
-      <c r="T24" s="12">
+      <c r="S24" s="3"/>
+      <c r="T24" s="10">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="11">
         <v>24342</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="11">
         <v>74</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="11">
         <v>40</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X24" s="12">
         <v>69</v>
       </c>
-      <c r="AC24"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
     </row>
     <row r="25" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>6278</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>37</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <v>24</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>43</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="9">
+      <c r="G25" s="3"/>
+      <c r="H25" s="7">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="8">
         <v>11437</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="8">
         <v>45</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="8">
         <v>26</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="9">
         <v>44</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="9">
+      <c r="M25" s="3"/>
+      <c r="N25" s="7">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="8">
         <v>16831</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="8">
         <v>58</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="8">
         <v>32</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="9">
         <v>56</v>
       </c>
-      <c r="S25" s="5"/>
-      <c r="T25" s="9">
+      <c r="S25" s="3"/>
+      <c r="T25" s="7">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="U25" s="10">
+      <c r="U25" s="8">
         <v>24409</v>
       </c>
-      <c r="V25" s="10">
+      <c r="V25" s="8">
         <v>69</v>
       </c>
-      <c r="W25" s="10">
+      <c r="W25" s="8">
         <v>42</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X25" s="9">
         <v>71</v>
       </c>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
     </row>
     <row r="26" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="11">
         <v>6317</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="11">
         <v>36</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <v>25</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="12">
         <v>40</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="12">
+      <c r="G26" s="3"/>
+      <c r="H26" s="10">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="11">
         <v>11475</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <v>42</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="11">
         <v>26</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="12">
         <v>46</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="12">
+      <c r="M26" s="3"/>
+      <c r="N26" s="10">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="11">
         <v>16894</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="11">
         <v>56</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="11">
         <v>34</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="12">
         <v>54</v>
       </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="12">
+      <c r="S26" s="3"/>
+      <c r="T26" s="10">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="U26" s="13">
+      <c r="U26" s="11">
         <v>24506</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="11">
         <v>68</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="11">
         <v>43</v>
       </c>
-      <c r="X26" s="14">
+      <c r="X26" s="12">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>6318</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>35</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>23</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <v>39</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="9">
+      <c r="G27" s="3"/>
+      <c r="H27" s="7">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>11480</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="8">
         <v>43</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="8">
         <v>26</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="9">
         <v>46</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="9">
+      <c r="M27" s="3"/>
+      <c r="N27" s="7">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="8">
         <v>16807</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="8">
         <v>56</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="8">
         <v>34</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="9">
         <v>62</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="9">
+      <c r="S27" s="3"/>
+      <c r="T27" s="7">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="U27" s="10">
+      <c r="U27" s="8">
         <v>24393</v>
       </c>
-      <c r="V27" s="10">
+      <c r="V27" s="8">
         <v>78</v>
       </c>
-      <c r="W27" s="10">
+      <c r="W27" s="8">
         <v>42</v>
       </c>
-      <c r="X27" s="11">
+      <c r="X27" s="9">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>6308</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="11">
         <v>35</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="11">
         <v>22</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="12">
         <v>41</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="12">
+      <c r="G28" s="3"/>
+      <c r="H28" s="10">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="11">
         <v>11430</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <v>43</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="11">
         <v>27</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="12">
         <v>45</v>
       </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="12">
+      <c r="M28" s="3"/>
+      <c r="N28" s="10">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="11">
         <v>16801</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="11">
         <v>57</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="11">
         <v>33</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="12">
         <v>54</v>
       </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="12">
+      <c r="S28" s="3"/>
+      <c r="T28" s="10">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="11">
         <v>24614</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="11">
         <v>67</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="11">
         <v>41</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X28" s="12">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <f>B28+1</f>
         <v>9</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10">
+      <c r="C29" s="8">
+        <v>6360</v>
+      </c>
+      <c r="D29" s="8">
         <v>37</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>23</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="9">
         <v>41</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="9">
+      <c r="G29" s="3"/>
+      <c r="H29" s="7">
         <f>H28+1</f>
         <v>9</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10">
+      <c r="I29" s="8">
+        <v>12133</v>
+      </c>
+      <c r="J29" s="8">
         <v>45</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="8">
         <v>27</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="9">
         <v>46</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="9">
+      <c r="M29" s="3"/>
+      <c r="N29" s="7">
         <f>N28+1</f>
         <v>9</v>
       </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10">
+      <c r="O29" s="8">
+        <v>17715</v>
+      </c>
+      <c r="P29" s="8">
         <v>55</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="8">
         <v>33</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="9">
         <v>55</v>
       </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="9">
+      <c r="S29" s="3"/>
+      <c r="T29" s="7">
         <f>T28+1</f>
         <v>9</v>
       </c>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10">
+      <c r="U29" s="8">
+        <v>24605</v>
+      </c>
+      <c r="V29" s="8">
         <v>68</v>
       </c>
-      <c r="W29" s="10">
+      <c r="W29" s="8">
         <v>41</v>
       </c>
-      <c r="X29" s="11">
+      <c r="X29" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15">
+      <c r="B30" s="13">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16">
+      <c r="C30" s="14">
+        <v>6315</v>
+      </c>
+      <c r="D30" s="14">
         <v>36</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>24</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="15">
         <v>40</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="15">
+      <c r="G30" s="3"/>
+      <c r="H30" s="13">
         <f t="shared" ref="H30" si="10">H29+1</f>
         <v>10</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16">
+      <c r="I30" s="14">
+        <v>11473</v>
+      </c>
+      <c r="J30" s="14">
         <v>47</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="14">
         <v>27</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="15">
         <v>47</v>
       </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="15">
+      <c r="M30" s="3"/>
+      <c r="N30" s="13">
         <f t="shared" ref="N30" si="11">N29+1</f>
         <v>10</v>
       </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16">
+      <c r="O30" s="14">
+        <v>16822</v>
+      </c>
+      <c r="P30" s="14">
         <v>64</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="14">
         <v>36</v>
       </c>
-      <c r="R30" s="17">
+      <c r="R30" s="15">
         <v>55</v>
       </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="15">
+      <c r="S30" s="3"/>
+      <c r="T30" s="13">
         <f t="shared" ref="T30" si="12">T29+1</f>
         <v>10</v>
       </c>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16">
+      <c r="U30" s="14">
+        <v>24361</v>
+      </c>
+      <c r="V30" s="14">
         <v>74</v>
       </c>
-      <c r="W30" s="16">
+      <c r="W30" s="14">
         <v>42</v>
       </c>
-      <c r="X30" s="17">
+      <c r="X30" s="15">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
     </row>
     <row r="32" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
@@ -4377,7 +5562,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="20" t="s">
         <v>5</v>
       </c>
@@ -4385,7 +5570,7 @@
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
-      <c r="M32" s="5"/>
+      <c r="M32" s="3"/>
       <c r="N32" s="20" t="s">
         <v>6</v>
       </c>
@@ -4393,644 +5578,656 @@
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="22"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="6" t="s">
+      <c r="M33" s="3"/>
+      <c r="N33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="Q33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="R33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>1</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>39684</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>85</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <v>52</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="9">
         <v>85</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="9">
+      <c r="G34" s="3"/>
+      <c r="H34" s="7">
         <v>1</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="8">
         <v>56010</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="8">
         <v>105</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="8">
         <v>61</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="9">
         <v>98</v>
       </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="9">
+      <c r="M34" s="3"/>
+      <c r="N34" s="7">
         <v>1</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="8">
         <v>69607</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="8">
         <v>126</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="8">
         <v>72</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="9">
         <v>118</v>
       </c>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <f>B34+1</f>
         <v>2</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <v>38457</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="11">
         <v>88</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="11">
         <v>53</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="12">
         <v>85</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="12">
+      <c r="G35" s="3"/>
+      <c r="H35" s="10">
         <f>H34+1</f>
         <v>2</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="11">
         <v>55950</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="11">
         <v>105</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="11">
         <v>64</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="12">
         <v>98</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="12">
+      <c r="M35" s="3"/>
+      <c r="N35" s="10">
         <f>N34+1</f>
         <v>2</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="11">
         <v>69324</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="11">
         <v>119</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="11">
         <v>71</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="12">
         <v>116</v>
       </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
+      <c r="B36" s="7">
         <f t="shared" ref="B36:B41" si="13">B35+1</f>
         <v>3</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>38933</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>91</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <v>51</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="9">
         <v>85</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="9">
+      <c r="G36" s="3"/>
+      <c r="H36" s="7">
         <f t="shared" ref="H36:H41" si="14">H35+1</f>
         <v>3</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="8">
         <v>57030</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="8">
         <v>106</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="8">
         <v>62</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="9">
         <v>98</v>
       </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="9">
+      <c r="M36" s="3"/>
+      <c r="N36" s="7">
         <f t="shared" ref="N36:N41" si="15">N35+1</f>
         <v>3</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="8">
         <v>69180</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="8">
         <v>119</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="Q36" s="8">
         <v>70</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="9">
         <v>116</v>
       </c>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+      <c r="B37" s="10">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>38405</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="11">
         <v>86</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="11">
         <v>51</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="12">
         <v>87</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="12">
+      <c r="G37" s="3"/>
+      <c r="H37" s="10">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="11">
         <v>55817</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="11">
         <v>112</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="11">
         <v>63</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="12">
         <v>117</v>
       </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="12">
+      <c r="M37" s="3"/>
+      <c r="N37" s="10">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="11">
         <v>69316</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="11">
         <v>119</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="11">
         <v>69</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="12">
         <v>116</v>
       </c>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
+      <c r="B38" s="7">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <v>39869</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>91</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <v>52</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="9">
         <v>84</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="9">
+      <c r="G38" s="3"/>
+      <c r="H38" s="7">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="8">
         <v>57219</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="8">
         <v>109</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="8">
         <v>62</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="9">
         <v>100</v>
       </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="9">
+      <c r="M38" s="3"/>
+      <c r="N38" s="7">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="8">
         <v>70369</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="8">
         <v>122</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="8">
         <v>70</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="9">
         <v>120</v>
       </c>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+      <c r="B39" s="10">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>38509</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="11">
         <v>87</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="11">
         <v>52</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="12">
         <v>86</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="12">
+      <c r="G39" s="3"/>
+      <c r="H39" s="10">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="11">
         <v>56142</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="11">
         <v>106</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="11">
         <v>65</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="12">
         <v>99</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="12">
+      <c r="M39" s="3"/>
+      <c r="N39" s="10">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="11">
         <v>69882</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="11">
         <v>125</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="11">
         <v>75</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="12">
         <v>116</v>
       </c>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="9">
+      <c r="B40" s="7">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>38904</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>88</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>52</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="9">
         <v>89</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="9">
+      <c r="G40" s="3"/>
+      <c r="H40" s="7">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="8">
         <v>55779</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="8">
         <v>106</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="8">
         <v>63</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="9">
         <v>98</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="9">
+      <c r="M40" s="3"/>
+      <c r="N40" s="7">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="O40" s="10">
+      <c r="O40" s="8">
         <v>70186</v>
       </c>
-      <c r="P40" s="10">
+      <c r="P40" s="8">
         <v>123</v>
       </c>
-      <c r="Q40" s="10">
+      <c r="Q40" s="8">
         <v>71</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R40" s="9">
         <v>119</v>
       </c>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="11">
         <v>38591</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="11">
         <v>88</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="11">
         <v>52</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="12">
         <v>83</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="12">
+      <c r="G41" s="3"/>
+      <c r="H41" s="10">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="11">
         <v>56013</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="11">
         <v>110</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="11">
         <v>63</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="12">
         <v>99</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="12">
+      <c r="M41" s="3"/>
+      <c r="N41" s="10">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="11">
         <v>71362</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="11">
         <v>120</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="11">
         <v>69</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R41" s="12">
         <v>116</v>
       </c>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
     </row>
     <row r="42" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="9">
+      <c r="B42" s="7">
         <f>B41+1</f>
         <v>9</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10">
+      <c r="C42" s="8">
+        <v>38897</v>
+      </c>
+      <c r="D42" s="8">
         <v>88</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="8">
         <v>51</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="9">
         <v>87</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="9">
+      <c r="G42" s="3"/>
+      <c r="H42" s="7">
         <f>H41+1</f>
         <v>9</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10">
+      <c r="I42" s="8">
+        <v>56057</v>
+      </c>
+      <c r="J42" s="8">
         <v>106</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="8">
         <v>63</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="9">
         <v>103</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="9">
+      <c r="M42" s="3"/>
+      <c r="N42" s="7">
         <f>N41+1</f>
         <v>9</v>
       </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10">
+      <c r="O42" s="8">
+        <v>69777</v>
+      </c>
+      <c r="P42" s="8">
         <v>118</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="8">
         <v>70</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42" s="9">
         <v>116</v>
       </c>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
     </row>
     <row r="43" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="15">
+      <c r="B43" s="13">
         <f t="shared" ref="B43" si="16">B42+1</f>
         <v>10</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16">
+      <c r="C43" s="14">
+        <v>38340</v>
+      </c>
+      <c r="D43" s="14">
         <v>86</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="14">
         <v>53</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="15">
         <v>86</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="15">
+      <c r="G43" s="3"/>
+      <c r="H43" s="13">
         <f t="shared" ref="H43" si="17">H42+1</f>
         <v>10</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16">
+      <c r="I43" s="14">
+        <v>55942</v>
+      </c>
+      <c r="J43" s="14">
         <v>108</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="14">
         <v>67</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="15">
         <v>99</v>
       </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="15">
+      <c r="M43" s="3"/>
+      <c r="N43" s="13">
         <f t="shared" ref="N43" si="18">N42+1</f>
         <v>10</v>
       </c>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16">
+      <c r="O43" s="14">
+        <v>69634</v>
+      </c>
+      <c r="P43" s="14">
         <v>143</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="14">
         <v>72</v>
       </c>
-      <c r="R43" s="17">
+      <c r="R43" s="15">
         <v>118</v>
       </c>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
     </row>
     <row r="44" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44"/>
@@ -5050,23 +6247,23 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>

--- a/Assignment_02_Big_Oh_Exploration/Assignment_02.xlsx
+++ b/Assignment_02_Big_Oh_Exploration/Assignment_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reid Roberts\Desktop\CPSC 6109 Algorithms Analysis and Design\CPSC-6109-Algorithms-Analysis-and-Design\Assignment_02_Big_Oh_Exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BE8179-3775-43CB-B61F-896D32C3665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F7E2C1-15ED-4CA7-8416-74CB82DF9553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{797E9D8A-5580-4ECB-B6E6-8EA4A897F634}"/>
+    <workbookView xWindow="38280" yWindow="-1500" windowWidth="38640" windowHeight="21240" xr2:uid="{797E9D8A-5580-4ECB-B6E6-8EA4A897F634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>n = 1,000,000</t>
   </si>
   <si>
-    <t>Input Array Size (# elements)</t>
-  </si>
-  <si>
     <t>Insertion Sort</t>
   </si>
   <si>
@@ -82,14 +79,15 @@
   <si>
     <t>Merge Sort</t>
   </si>
+  <si>
+    <t>Input Size
+(# elements)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,14 +309,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -326,23 +324,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -399,15 +397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,6 +414,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +581,7 @@
             <c:numRef>
               <c:f>Sheet1!$K$7:$K$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>35.6</c:v>
@@ -676,7 +674,7 @@
             <c:numRef>
               <c:f>Sheet1!$L$7:$L$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>23.3</c:v>
@@ -769,7 +767,7 @@
             <c:numRef>
               <c:f>Sheet1!$M$7:$M$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>41.8</c:v>
@@ -1253,7 +1251,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$7:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6320.5</c:v>
@@ -1737,7 +1735,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$7:$J$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6320.5</c:v>
@@ -1830,7 +1828,7 @@
             <c:numRef>
               <c:f>Sheet1!$K$7:$K$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>35.6</c:v>
@@ -1923,7 +1921,7 @@
             <c:numRef>
               <c:f>Sheet1!$L$7:$L$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>23.3</c:v>
@@ -2016,7 +2014,7 @@
             <c:numRef>
               <c:f>Sheet1!$M$7:$M$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>41.8</c:v>
@@ -4492,23 +4490,23 @@
   <dimension ref="A4:AE46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -4525,63 +4523,63 @@
     <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="I5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:31" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>14</v>
+      <c r="M6" s="25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="7">
         <v>300000</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="8">
         <f>AVERAGE(C$21:C$30)</f>
         <v>6320.5</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="8">
         <f>AVERAGE(D$21:D$30)</f>
         <v>35.6</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="8">
         <f>AVERAGE(E$21:E$30)</f>
         <v>23.3</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="9">
         <f>AVERAGE(F$21:F$30)</f>
         <v>41.8</v>
       </c>
@@ -4590,23 +4588,23 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>400000</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="11">
         <f>AVERAGE(I$21:I$30)</f>
         <v>11542.8</v>
       </c>
-      <c r="K8" s="19">
-        <f t="shared" ref="K8:M8" si="0">AVERAGE(J$21:J$30)</f>
+      <c r="K8" s="11">
+        <f>AVERAGE(J$21:J$30)</f>
         <v>44.4</v>
       </c>
-      <c r="L8" s="19">
-        <f t="shared" si="0"/>
+      <c r="L8" s="11">
+        <f>AVERAGE(K$21:K$30)</f>
         <v>26.5</v>
       </c>
-      <c r="M8" s="19">
-        <f t="shared" si="0"/>
+      <c r="M8" s="12">
+        <f>AVERAGE(L$21:L$30)</f>
         <v>46</v>
       </c>
     </row>
@@ -4614,23 +4612,23 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="7">
         <v>500000</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="8">
         <f>AVERAGE(O$21:O$30)</f>
         <v>16971.7</v>
       </c>
-      <c r="K9" s="19">
-        <f t="shared" ref="K9:M9" si="1">AVERAGE(P$21:P$30)</f>
+      <c r="K9" s="8">
+        <f>AVERAGE(P$21:P$30)</f>
         <v>56.9</v>
       </c>
-      <c r="L9" s="19">
-        <f t="shared" si="1"/>
+      <c r="L9" s="8">
+        <f>AVERAGE(Q$21:Q$30)</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="M9" s="19">
-        <f t="shared" si="1"/>
+      <c r="M9" s="9">
+        <f>AVERAGE(R$21:R$30)</f>
         <v>55.6</v>
       </c>
     </row>
@@ -4638,91 +4636,110 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>600000</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="11">
         <f>AVERAGE(U$21:U$30)</f>
         <v>24538.3</v>
       </c>
-      <c r="K10" s="19">
-        <f t="shared" ref="K10:M10" si="2">AVERAGE(V$21:V$30)</f>
+      <c r="K10" s="11">
+        <f>AVERAGE(V$21:V$30)</f>
         <v>70.2</v>
       </c>
-      <c r="L10" s="19">
-        <f t="shared" si="2"/>
+      <c r="L10" s="11">
+        <f>AVERAGE(W$21:W$30)</f>
         <v>41.5</v>
       </c>
-      <c r="M10" s="19">
-        <f t="shared" si="2"/>
+      <c r="M10" s="12">
+        <f>AVERAGE(X$21:X$30)</f>
         <v>70.3</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="I11" s="11">
+      <c r="I11" s="7">
         <v>750000</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="8">
         <f>AVERAGE(C$34:C$43)</f>
         <v>38858.9</v>
       </c>
-      <c r="K11" s="19">
-        <f t="shared" ref="K11:M11" si="3">AVERAGE(D$34:D$43)</f>
+      <c r="K11" s="8">
+        <f>AVERAGE(D$34:D$43)</f>
         <v>87.8</v>
       </c>
-      <c r="L11" s="19">
-        <f t="shared" si="3"/>
+      <c r="L11" s="8">
+        <f>AVERAGE(E$34:E$43)</f>
         <v>51.9</v>
       </c>
-      <c r="M11" s="19">
-        <f t="shared" si="3"/>
+      <c r="M11" s="9">
+        <f>AVERAGE(F$34:F$43)</f>
         <v>85.7</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>900000</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="11">
         <f>AVERAGE(I$34:I$43)</f>
         <v>56195.9</v>
       </c>
-      <c r="K12" s="19">
-        <f t="shared" ref="K12:M12" si="4">AVERAGE(J$34:J$43)</f>
+      <c r="K12" s="11">
+        <f>AVERAGE(J$34:J$43)</f>
         <v>107.3</v>
       </c>
-      <c r="L12" s="19">
-        <f t="shared" si="4"/>
+      <c r="L12" s="11">
+        <f>AVERAGE(K$34:K$43)</f>
         <v>63.3</v>
       </c>
-      <c r="M12" s="19">
-        <f t="shared" si="4"/>
+      <c r="M12" s="12">
+        <f>AVERAGE(L$34:L$43)</f>
         <v>100.9</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <v>1000000</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="8">
         <f>AVERAGE(O$34:O$43)</f>
         <v>69863.7</v>
       </c>
-      <c r="K13" s="19">
-        <f t="shared" ref="K13:M13" si="5">AVERAGE(P$34:P$43)</f>
+      <c r="K13" s="8">
+        <f>AVERAGE(P$34:P$43)</f>
         <v>123.4</v>
       </c>
-      <c r="L13" s="19">
-        <f t="shared" si="5"/>
+      <c r="L13" s="8">
+        <f>AVERAGE(Q$34:Q$43)</f>
         <v>70.900000000000006</v>
       </c>
-      <c r="M13" s="19">
-        <f t="shared" si="5"/>
+      <c r="M13" s="9">
+        <f>AVERAGE(R$34:R$43)</f>
         <v>117.1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
@@ -4746,101 +4763,101 @@
       <c r="AE18" s="2"/>
     </row>
     <row r="19" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="20" t="s">
+      <c r="N19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="22"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="20" t="s">
+      <c r="T19" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="22"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="19"/>
     </row>
     <row r="20" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="R20" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="W20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="X20" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4979,7 +4996,7 @@
     </row>
     <row r="23" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
-        <f t="shared" ref="B23:B30" si="6">B22+1</f>
+        <f t="shared" ref="B23:B30" si="0">B22+1</f>
         <v>3</v>
       </c>
       <c r="C23" s="8">
@@ -4996,7 +5013,7 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:H28" si="7">H22+1</f>
+        <f t="shared" ref="H23:H28" si="1">H22+1</f>
         <v>3</v>
       </c>
       <c r="I23" s="8">
@@ -5013,7 +5030,7 @@
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="7">
-        <f t="shared" ref="N23:N28" si="8">N22+1</f>
+        <f t="shared" ref="N23:N28" si="2">N22+1</f>
         <v>3</v>
       </c>
       <c r="O23" s="8">
@@ -5030,7 +5047,7 @@
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="7">
-        <f t="shared" ref="T23:T28" si="9">T22+1</f>
+        <f t="shared" ref="T23:T28" si="3">T22+1</f>
         <v>3</v>
       </c>
       <c r="U23" s="8">
@@ -5048,7 +5065,7 @@
     </row>
     <row r="24" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C24" s="11">
@@ -5065,7 +5082,7 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I24" s="11">
@@ -5082,7 +5099,7 @@
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O24" s="11">
@@ -5099,7 +5116,7 @@
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="U24" s="11">
@@ -5117,7 +5134,7 @@
     </row>
     <row r="25" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C25" s="8">
@@ -5134,7 +5151,7 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I25" s="8">
@@ -5151,7 +5168,7 @@
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O25" s="8">
@@ -5168,7 +5185,7 @@
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="U25" s="8">
@@ -5186,7 +5203,7 @@
     </row>
     <row r="26" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C26" s="11">
@@ -5203,7 +5220,7 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I26" s="11">
@@ -5220,7 +5237,7 @@
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O26" s="11">
@@ -5237,7 +5254,7 @@
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="U26" s="11">
@@ -5255,7 +5272,7 @@
     </row>
     <row r="27" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C27" s="8">
@@ -5272,7 +5289,7 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I27" s="8">
@@ -5289,7 +5306,7 @@
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O27" s="8">
@@ -5306,7 +5323,7 @@
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="U27" s="8">
@@ -5324,7 +5341,7 @@
     </row>
     <row r="28" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C28" s="11">
@@ -5341,7 +5358,7 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I28" s="11">
@@ -5358,7 +5375,7 @@
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O28" s="11">
@@ -5375,7 +5392,7 @@
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="U28" s="11">
@@ -5462,7 +5479,7 @@
     </row>
     <row r="30" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C30" s="14">
@@ -5479,7 +5496,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="13">
-        <f t="shared" ref="H30" si="10">H29+1</f>
+        <f t="shared" ref="H30" si="4">H29+1</f>
         <v>10</v>
       </c>
       <c r="I30" s="14">
@@ -5496,7 +5513,7 @@
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="13">
-        <f t="shared" ref="N30" si="11">N29+1</f>
+        <f t="shared" ref="N30" si="5">N29+1</f>
         <v>10</v>
       </c>
       <c r="O30" s="14">
@@ -5513,7 +5530,7 @@
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="13">
-        <f t="shared" ref="T30" si="12">T29+1</f>
+        <f t="shared" ref="T30" si="6">T29+1</f>
         <v>10</v>
       </c>
       <c r="U30" s="14">
@@ -5536,17 +5553,17 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -5555,29 +5572,29 @@
       <c r="X31" s="3"/>
     </row>
     <row r="32" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="20" t="s">
+      <c r="N32" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="22"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="19"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -5588,51 +5605,51 @@
     </row>
     <row r="33" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="L33" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="Q33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="R33" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -5759,7 +5776,7 @@
     </row>
     <row r="36" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
-        <f t="shared" ref="B36:B41" si="13">B35+1</f>
+        <f t="shared" ref="B36:B41" si="7">B35+1</f>
         <v>3</v>
       </c>
       <c r="C36" s="8">
@@ -5776,7 +5793,7 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="7">
-        <f t="shared" ref="H36:H41" si="14">H35+1</f>
+        <f t="shared" ref="H36:H41" si="8">H35+1</f>
         <v>3</v>
       </c>
       <c r="I36" s="8">
@@ -5793,7 +5810,7 @@
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="7">
-        <f t="shared" ref="N36:N41" si="15">N35+1</f>
+        <f t="shared" ref="N36:N41" si="9">N35+1</f>
         <v>3</v>
       </c>
       <c r="O36" s="8">
@@ -5818,7 +5835,7 @@
     </row>
     <row r="37" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C37" s="11">
@@ -5835,7 +5852,7 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I37" s="11">
@@ -5852,7 +5869,7 @@
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O37" s="11">
@@ -5877,7 +5894,7 @@
     </row>
     <row r="38" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C38" s="8">
@@ -5894,7 +5911,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I38" s="8">
@@ -5911,7 +5928,7 @@
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O38" s="8">
@@ -5936,7 +5953,7 @@
     </row>
     <row r="39" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C39" s="11">
@@ -5953,7 +5970,7 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I39" s="11">
@@ -5970,7 +5987,7 @@
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O39" s="11">
@@ -5995,7 +6012,7 @@
     </row>
     <row r="40" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C40" s="8">
@@ -6012,7 +6029,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I40" s="8">
@@ -6029,7 +6046,7 @@
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O40" s="8">
@@ -6054,7 +6071,7 @@
     </row>
     <row r="41" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C41" s="11">
@@ -6071,7 +6088,7 @@
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I41" s="11">
@@ -6088,7 +6105,7 @@
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O41" s="11">
@@ -6172,7 +6189,7 @@
     </row>
     <row r="43" spans="1:25" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13">
-        <f t="shared" ref="B43" si="16">B42+1</f>
+        <f t="shared" ref="B43" si="10">B42+1</f>
         <v>10</v>
       </c>
       <c r="C43" s="14">
@@ -6189,7 +6206,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="13">
-        <f t="shared" ref="H43" si="17">H42+1</f>
+        <f t="shared" ref="H43" si="11">H42+1</f>
         <v>10</v>
       </c>
       <c r="I43" s="14">
@@ -6206,7 +6223,7 @@
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="13">
-        <f t="shared" ref="N43" si="18">N42+1</f>
+        <f t="shared" ref="N43" si="12">N42+1</f>
         <v>10</v>
       </c>
       <c r="O43" s="14">
